--- a/Survey/Modified Survey Data.xlsx
+++ b/Survey/Modified Survey Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jodienejohnson/Desktop/tfcb-homework02/Survey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jodienejohnson/Library/Containers/com.microsoft.Excel/Data/Desktop/tfcb-homework02/Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B59324-1C00-3E4F-A436-DE1C3CCE39DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD03062-DCC9-B944-A355-FEC6CF30B55F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="460" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,9 +237,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -656,7 +653,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -700,7 +697,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1363,499 +1360,499 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
@@ -2782,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0981FA-8DCB-A54A-AB0A-EC73E64EBB2F}">
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -3445,29 +3442,39 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>8</v>
+      <c r="A27" s="19">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19">
+        <v>40</v>
+      </c>
+      <c r="E27" s="20">
+        <v>41648</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -3480,10 +3487,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E28" s="20">
         <v>41648</v>
@@ -3502,10 +3509,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="19">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E29" s="20">
-        <v>41648</v>
+        <v>41711</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -3521,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="19">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E30" s="20">
         <v>41711</v>
@@ -3534,13 +3541,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="19">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E31" s="20">
         <v>41711</v>
@@ -3550,19 +3557,19 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="19">
-        <v>146</v>
+        <v>20</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="E32" s="20">
-        <v>41711</v>
+        <v>41647</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -3572,13 +3579,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="19">
+        <v>44</v>
       </c>
       <c r="E33" s="20">
         <v>41647</v>
@@ -3591,13 +3598,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="19">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E34" s="20">
         <v>41647</v>
@@ -3610,13 +3617,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="19">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E35" s="20">
         <v>41647</v>
@@ -3629,13 +3636,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="19">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="E36" s="20">
         <v>41647</v>
@@ -3643,18 +3650,18 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>2</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="E37" s="20">
         <v>41647</v>
@@ -3662,18 +3669,18 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>2</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E38" s="20">
         <v>41647</v>
@@ -3681,37 +3688,37 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E39" s="20">
-        <v>41647</v>
+        <v>41688</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="D40" s="19">
+        <v>7</v>
       </c>
       <c r="E40" s="20">
         <v>41688</v>
@@ -3724,13 +3731,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" s="19">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E41" s="20">
         <v>41688</v>
@@ -3740,19 +3747,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="19">
-        <v>52</v>
-      </c>
-      <c r="E42" s="20">
-        <v>41688</v>
+        <v>8</v>
+      </c>
+      <c r="E42" s="24">
+        <v>42074</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -3762,16 +3769,16 @@
         <v>3</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="19">
-        <v>8</v>
-      </c>
-      <c r="E43" s="25">
-        <v>42074</v>
+        <v>3</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="24">
+        <v>42102</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -3781,16 +3788,16 @@
         <v>3</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="25">
-        <v>42102</v>
+      <c r="E44" s="24">
+        <v>42130</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -3800,16 +3807,16 @@
         <v>3</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="25">
-        <v>42130</v>
+        <v>3</v>
+      </c>
+      <c r="D45" s="19">
+        <v>182</v>
+      </c>
+      <c r="E45" s="24">
+        <v>42142</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -3819,16 +3826,16 @@
         <v>3</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="19">
-        <v>182</v>
-      </c>
-      <c r="E46" s="25">
-        <v>42142</v>
+        <v>29</v>
+      </c>
+      <c r="E46" s="24">
+        <v>42164</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -3838,16 +3845,16 @@
         <v>3</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>29</v>
-      </c>
-      <c r="E47" s="25">
-        <v>42164</v>
+        <v>115</v>
+      </c>
+      <c r="E47" s="24">
+        <v>42193</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -3860,12 +3867,12 @@
         <v>0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" s="19">
-        <v>115</v>
-      </c>
-      <c r="E48" s="25">
+        <v>190</v>
+      </c>
+      <c r="E48" s="24">
         <v>42193</v>
       </c>
       <c r="F48" s="17"/>
@@ -3873,19 +3880,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" s="19">
-        <v>190</v>
-      </c>
-      <c r="E49" s="25">
-        <v>42193</v>
+        <v>37</v>
+      </c>
+      <c r="E49" s="20">
+        <v>28498</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -3898,10 +3905,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="19">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="E50" s="20">
         <v>28498</v>
@@ -3917,10 +3924,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="19">
+        <v>48</v>
       </c>
       <c r="E51" s="20">
         <v>28498</v>
@@ -3933,13 +3940,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" s="19">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E52" s="20">
         <v>28498</v>
@@ -3952,13 +3959,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="19">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E53" s="20">
         <v>28498</v>
@@ -3967,28 +3974,18 @@
       <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
-        <v>4</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="19">
-        <v>35</v>
-      </c>
-      <c r="E54" s="20">
-        <v>28498</v>
-      </c>
+      <c r="A54" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -4267,13 +4264,13 @@
       <c r="G85" s="17"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
@@ -4283,15 +4280,6 @@
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Survey/Modified Survey Data.xlsx
+++ b/Survey/Modified Survey Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jodienejohnson/Library/Containers/com.microsoft.Excel/Data/Desktop/tfcb-homework02/Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD03062-DCC9-B944-A355-FEC6CF30B55F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE62286-22F8-DA49-91B0-9147DAF67629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="460" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,6 +261,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +656,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -697,7 +700,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2781,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0981FA-8DCB-A54A-AB0A-EC73E64EBB2F}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2805,7 +2808,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="17"/>
@@ -3422,7 +3425,7 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="17"/>
